--- a/data/georgia_census/qvemo-qartli/bolnisi/healthcare_staff.xlsx
+++ b/data/georgia_census/qvemo-qartli/bolnisi/healthcare_staff.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13899EFE-55D4-49B0-A344-A3DA6E1809EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBF7AF4-C3FC-4887-896C-DCDECB095684}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17A6C08-2D09-4E9B-802D-56319324B3D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD981412-877A-4D4B-84EE-20477E9B7DDF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2A965E-EB60-40D3-8D06-E13E2DC34F7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98310A2-C626-459C-9DF7-ECD47E63DEBF}"/>
 </file>